--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Initial Care Intensity Code System</t>
+    <t>Initial Care Intensity CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes indicating the level of care provided during the patient's initial day(s) in the hospital.</t>
+    <t>Local CodeSystem representing the **initial intensity of care** during the first day(s) of the stroke encounter.
+**Primary use-case**
+- Populate `InitialCareIntensityExtension` on Encounter to support:
+  - case-mix characterization (ICU/stroke unit vs monitored vs standard bed),
+  - operational benchmarking and staffing analysis,
+  - research stratification where initial level-of-care is a confounder.
+**Interpretation guidance**
+- `standard`: no continuous monitoring beyond standard nursing observation.
+- `monitored`: telemetry or continuous monitoring outside ICU.
+- `icu-stroke`: ICU or dedicated stroke unit level care (per local definitions).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -144,19 +153,19 @@
     <t>standard</t>
   </si>
   <si>
-    <t>Standard Bed</t>
-  </si>
-  <si>
-    <t>Patient placed in a standard hospital bed without continuous monitoring.</t>
+    <t>Standard bed</t>
+  </si>
+  <si>
+    <t>Patient placed in a standard inpatient bed without continuous telemetry/continuous physiologic monitoring.</t>
   </si>
   <si>
     <t>monitored</t>
   </si>
   <si>
-    <t>Monitored Bed</t>
-  </si>
-  <si>
-    <t>Patient placed in a bed with continuous telemetry or other monitoring (outside ICU).</t>
+    <t>Monitored bed</t>
+  </si>
+  <si>
+    <t>Patient placed in a monitored setting (e.g., telemetry) without full ICU-level care.</t>
   </si>
   <si>
     <t>icu-stroke</t>
@@ -165,7 +174,7 @@
     <t>ICU / Stroke Unit</t>
   </si>
   <si>
-    <t>Patient placed in an Intensive Care Unit or specialized Stroke Unit.</t>
+    <t>Patient managed in an ICU or specialized stroke unit providing high-intensity care and monitoring.</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
